--- a/URS_Certifications 30.11.24.xlsx
+++ b/URS_Certifications 30.11.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\черновики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B0F21D8-2965-4CBD-ACBF-AB128B0B2CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0017B3-5953-42F2-930A-5B4EDE8674A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URS_Certifications 30.11.24" sheetId="1" r:id="rId1"/>
@@ -2221,7 +2221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3075,11 +3075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
+      <selection activeCell="J634" sqref="J634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17265,9 +17265,6 @@
       <c r="B633" t="s">
         <v>24</v>
       </c>
-      <c r="C633">
-        <v>7841340350</v>
-      </c>
       <c r="D633" t="s">
         <v>14</v>
       </c>

--- a/URS_Certifications 30.11.24.xlsx
+++ b/URS_Certifications 30.11.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0017B3-5953-42F2-930A-5B4EDE8674A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39CA9A-ECAB-41AB-89E9-3667DD90831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5866" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5861" uniqueCount="731">
   <si>
     <t>Название компании</t>
   </si>
@@ -989,9 +989,6 @@
   </si>
   <si>
     <t>Фасткон</t>
-  </si>
-  <si>
-    <t>ISO 3834:2021</t>
   </si>
   <si>
     <t>Завод котельного оборудования</t>
@@ -3079,7 +3076,7 @@
   <dimension ref="A1:G1367"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="J634" sqref="J634"/>
+      <selection activeCell="I629" sqref="I629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17258,26 +17255,9 @@
         <v>45997</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A633" t="s">
-        <v>322</v>
-      </c>
-      <c r="B633" t="s">
-        <v>24</v>
-      </c>
-      <c r="D633" t="s">
-        <v>14</v>
-      </c>
-      <c r="E633" t="s">
-        <v>323</v>
-      </c>
-      <c r="F633" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B634" t="s">
         <v>8</v>
@@ -17300,7 +17280,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B635" t="s">
         <v>8</v>
@@ -17323,7 +17303,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B636" t="s">
         <v>8</v>
@@ -17346,7 +17326,7 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B637" t="s">
         <v>8</v>
@@ -17369,7 +17349,7 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B638" t="s">
         <v>24</v>
@@ -17392,13 +17372,13 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
+        <v>325</v>
+      </c>
+      <c r="E639" t="s">
+        <v>10</v>
+      </c>
+      <c r="F639" t="s">
         <v>326</v>
-      </c>
-      <c r="E639" t="s">
-        <v>10</v>
-      </c>
-      <c r="F639" t="s">
-        <v>327</v>
       </c>
       <c r="G639" s="1">
         <v>45575</v>
@@ -17406,13 +17386,13 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E640" t="s">
         <v>16</v>
       </c>
       <c r="F640" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G640" s="1">
         <v>45957</v>
@@ -17420,13 +17400,13 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E641" t="s">
         <v>26</v>
       </c>
       <c r="F641" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G641" s="1">
         <v>45957</v>
@@ -17434,13 +17414,13 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E642" t="s">
         <v>65</v>
       </c>
       <c r="F642" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G642" s="1">
         <v>45548</v>
@@ -17448,13 +17428,13 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
+        <v>325</v>
+      </c>
+      <c r="E643" t="s">
+        <v>327</v>
+      </c>
+      <c r="F643" t="s">
         <v>326</v>
-      </c>
-      <c r="E643" t="s">
-        <v>328</v>
-      </c>
-      <c r="F643" t="s">
-        <v>327</v>
       </c>
       <c r="G643" s="1">
         <v>45565</v>
@@ -17462,7 +17442,7 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B644" t="s">
         <v>8</v>
@@ -17485,7 +17465,7 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B645" t="s">
         <v>8</v>
@@ -17508,7 +17488,7 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B646" t="s">
         <v>8</v>
@@ -17531,7 +17511,7 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B647" t="s">
         <v>24</v>
@@ -17554,7 +17534,7 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B648" t="s">
         <v>24</v>
@@ -17577,7 +17557,7 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B649" t="s">
         <v>24</v>
@@ -17600,7 +17580,7 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B650" t="s">
         <v>8</v>
@@ -17623,7 +17603,7 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B651" t="s">
         <v>8</v>
@@ -17646,7 +17626,7 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B652" t="s">
         <v>24</v>
@@ -17669,7 +17649,7 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B653" t="s">
         <v>24</v>
@@ -17692,7 +17672,7 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B654" t="s">
         <v>24</v>
@@ -17715,7 +17695,7 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B655" t="s">
         <v>24</v>
@@ -17738,7 +17718,7 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B656" t="s">
         <v>24</v>
@@ -17761,7 +17741,7 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B657" t="s">
         <v>24</v>
@@ -17784,7 +17764,7 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B658" t="s">
         <v>8</v>
@@ -17807,7 +17787,7 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B659" t="s">
         <v>8</v>
@@ -17830,7 +17810,7 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B660" t="s">
         <v>8</v>
@@ -17853,7 +17833,7 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B661" t="s">
         <v>8</v>
@@ -17876,7 +17856,7 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B662" t="s">
         <v>24</v>
@@ -17899,7 +17879,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B663" t="s">
         <v>24</v>
@@ -17922,13 +17902,13 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E664" t="s">
         <v>10</v>
       </c>
       <c r="F664" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G664" s="1">
         <v>45926</v>
@@ -17936,13 +17916,13 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E665" t="s">
         <v>10</v>
       </c>
       <c r="F665" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G665" s="1">
         <v>45996</v>
@@ -17950,13 +17930,13 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E666" t="s">
         <v>16</v>
       </c>
       <c r="F666" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G666" s="1">
         <v>45995</v>
@@ -17964,13 +17944,13 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E667" t="s">
         <v>26</v>
       </c>
       <c r="F667" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G667" s="1">
         <v>45995</v>
@@ -17978,7 +17958,7 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B668" t="s">
         <v>24</v>
@@ -18001,13 +17981,13 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E669" t="s">
         <v>10</v>
       </c>
       <c r="F669" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G669" s="1">
         <v>46013</v>
@@ -18015,13 +17995,13 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E670" t="s">
         <v>16</v>
       </c>
       <c r="F670" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G670" s="1">
         <v>46013</v>
@@ -18029,13 +18009,13 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E671" t="s">
         <v>26</v>
       </c>
       <c r="F671" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G671" s="1">
         <v>46013</v>
@@ -18043,13 +18023,13 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E672" t="s">
         <v>10</v>
       </c>
       <c r="F672" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G672" s="1">
         <v>44902</v>
@@ -18057,13 +18037,13 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E673" t="s">
         <v>16</v>
       </c>
       <c r="F673" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G673" s="1">
         <v>44901</v>
@@ -18071,13 +18051,13 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E674" t="s">
         <v>26</v>
       </c>
       <c r="F674" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G674" s="1">
         <v>44901</v>
@@ -18085,7 +18065,7 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B675" t="s">
         <v>78</v>
@@ -18102,7 +18082,7 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E676" t="s">
         <v>10</v>
@@ -18116,7 +18096,7 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B677" t="s">
         <v>24</v>
@@ -18139,7 +18119,7 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B678" t="s">
         <v>24</v>
@@ -18162,7 +18142,7 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B679" t="s">
         <v>24</v>
@@ -18185,7 +18165,7 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B680" t="s">
         <v>24</v>
@@ -18208,7 +18188,7 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B681" t="s">
         <v>24</v>
@@ -18231,7 +18211,7 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B682" t="s">
         <v>24</v>
@@ -18254,7 +18234,7 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B683" t="s">
         <v>24</v>
@@ -18277,7 +18257,7 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B684" t="s">
         <v>24</v>
@@ -18300,7 +18280,7 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B685" t="s">
         <v>24</v>
@@ -18323,7 +18303,7 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B686" t="s">
         <v>24</v>
@@ -18346,7 +18326,7 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B687" t="s">
         <v>24</v>
@@ -18369,7 +18349,7 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B688" t="s">
         <v>24</v>
@@ -18392,7 +18372,7 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B689" t="s">
         <v>24</v>
@@ -18415,13 +18395,13 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
+        <v>350</v>
+      </c>
+      <c r="E690" t="s">
+        <v>10</v>
+      </c>
+      <c r="F690" t="s">
         <v>351</v>
-      </c>
-      <c r="E690" t="s">
-        <v>10</v>
-      </c>
-      <c r="F690" t="s">
-        <v>352</v>
       </c>
       <c r="G690" s="1">
         <v>45951</v>
@@ -18429,13 +18409,13 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E691" t="s">
         <v>16</v>
       </c>
       <c r="F691" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G691" s="1">
         <v>45951</v>
@@ -18443,13 +18423,13 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E692" t="s">
         <v>26</v>
       </c>
       <c r="F692" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G692" s="1">
         <v>45951</v>
@@ -18457,13 +18437,13 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E693" t="s">
         <v>10</v>
       </c>
       <c r="F693" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G693" s="1">
         <v>45925</v>
@@ -18471,13 +18451,13 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E694" t="s">
         <v>87</v>
       </c>
       <c r="F694" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G694" s="1">
         <v>45928</v>
@@ -18485,7 +18465,7 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B695" t="s">
         <v>24</v>
@@ -18508,7 +18488,7 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B696" t="s">
         <v>8</v>
@@ -18531,7 +18511,7 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B697" t="s">
         <v>8</v>
@@ -18554,7 +18534,7 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B698" t="s">
         <v>8</v>
@@ -18577,7 +18557,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B699" t="s">
         <v>8</v>
@@ -18600,7 +18580,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B700" t="s">
         <v>8</v>
@@ -18623,13 +18603,13 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E701" t="s">
         <v>10</v>
       </c>
       <c r="F701" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G701" s="1">
         <v>45927</v>
@@ -18637,13 +18617,13 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E702" t="s">
         <v>26</v>
       </c>
       <c r="F702" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G702" s="1">
         <v>45927</v>
@@ -18651,7 +18631,7 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B703" t="s">
         <v>8</v>
@@ -18674,7 +18654,7 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B704" t="s">
         <v>8</v>
@@ -18697,7 +18677,7 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B705" t="s">
         <v>8</v>
@@ -18720,7 +18700,7 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B706" t="s">
         <v>8</v>
@@ -18743,7 +18723,7 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E707" t="s">
         <v>10</v>
@@ -18757,7 +18737,7 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B708" t="s">
         <v>24</v>
@@ -18780,7 +18760,7 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B709" t="s">
         <v>24</v>
@@ -18803,7 +18783,7 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B710" t="s">
         <v>24</v>
@@ -18826,7 +18806,7 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B711" t="s">
         <v>24</v>
@@ -18849,7 +18829,7 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B712" t="s">
         <v>24</v>
@@ -18872,13 +18852,13 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E713" t="s">
         <v>10</v>
       </c>
       <c r="F713" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G713" s="1">
         <v>45838</v>
@@ -18886,13 +18866,13 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E714" t="s">
         <v>16</v>
       </c>
       <c r="F714" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G714" s="1">
         <v>45837</v>
@@ -18900,13 +18880,13 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E715" t="s">
         <v>26</v>
       </c>
       <c r="F715" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G715" s="1">
         <v>45837</v>
@@ -18914,7 +18894,7 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B716" t="s">
         <v>24</v>
@@ -18937,7 +18917,7 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B717" t="s">
         <v>24</v>
@@ -18960,7 +18940,7 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B718" t="s">
         <v>24</v>
@@ -18983,7 +18963,7 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B719" t="s">
         <v>24</v>
@@ -19006,7 +18986,7 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B720" t="s">
         <v>24</v>
@@ -19029,7 +19009,7 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B721" t="s">
         <v>24</v>
@@ -19052,13 +19032,13 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
+        <v>365</v>
+      </c>
+      <c r="E722" t="s">
+        <v>10</v>
+      </c>
+      <c r="F722" t="s">
         <v>366</v>
-      </c>
-      <c r="E722" t="s">
-        <v>10</v>
-      </c>
-      <c r="F722" t="s">
-        <v>367</v>
       </c>
       <c r="G722" s="1">
         <v>45888</v>
@@ -19066,7 +19046,7 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B723" t="s">
         <v>8</v>
@@ -19089,7 +19069,7 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B724" t="s">
         <v>24</v>
@@ -19112,7 +19092,7 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B725" t="s">
         <v>24</v>
@@ -19135,13 +19115,13 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E726" t="s">
         <v>10</v>
       </c>
       <c r="F726" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G726" s="1">
         <v>45813</v>
@@ -19149,7 +19129,7 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B727" t="s">
         <v>24</v>
@@ -19172,7 +19152,7 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B728" t="s">
         <v>24</v>
@@ -19195,13 +19175,13 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E729" t="s">
         <v>10</v>
       </c>
       <c r="F729" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G729" s="1">
         <v>45951</v>
@@ -19209,13 +19189,13 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E730" t="s">
         <v>16</v>
       </c>
       <c r="F730" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G730" s="1">
         <v>45951</v>
@@ -19223,13 +19203,13 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E731" t="s">
         <v>26</v>
       </c>
       <c r="F731" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G731" s="1">
         <v>45956</v>
@@ -19237,13 +19217,13 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E732" t="s">
         <v>10</v>
       </c>
       <c r="F732" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G732" s="1">
         <v>45989</v>
@@ -19251,13 +19231,13 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E733" t="s">
         <v>10</v>
       </c>
       <c r="F733" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G733" s="1">
         <v>45928</v>
@@ -19265,13 +19245,13 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E734" t="s">
         <v>10</v>
       </c>
       <c r="F734" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G734" s="1">
         <v>45996</v>
@@ -19279,13 +19259,13 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E735" t="s">
         <v>16</v>
       </c>
       <c r="F735" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G735" s="1">
         <v>45930</v>
@@ -19293,13 +19273,13 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E736" t="s">
         <v>26</v>
       </c>
       <c r="F736" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G736" s="1">
         <v>45993</v>
@@ -19307,13 +19287,13 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E737" t="s">
         <v>10</v>
       </c>
       <c r="F737" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G737" s="1">
         <v>45997</v>
@@ -19321,13 +19301,13 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E738" t="s">
         <v>10</v>
       </c>
       <c r="F738" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G738" s="1">
         <v>45997</v>
@@ -19335,13 +19315,13 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E739" t="s">
         <v>10</v>
       </c>
       <c r="F739" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G739" s="1">
         <v>46017</v>
@@ -19349,7 +19329,7 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B740" t="s">
         <v>24</v>
@@ -19372,7 +19352,7 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B741" t="s">
         <v>24</v>
@@ -19395,13 +19375,13 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E742" t="s">
         <v>65</v>
       </c>
       <c r="F742" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G742" s="1">
         <v>45925</v>
@@ -19409,10 +19389,10 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
+        <v>381</v>
+      </c>
+      <c r="B743" t="s">
         <v>382</v>
-      </c>
-      <c r="B743" t="s">
-        <v>383</v>
       </c>
       <c r="C743">
         <v>3904014891</v>
@@ -19432,13 +19412,13 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E744" t="s">
         <v>10</v>
       </c>
       <c r="F744" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G744" s="1">
         <v>46021</v>
@@ -19446,7 +19426,7 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B745" t="s">
         <v>24</v>
@@ -19469,7 +19449,7 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B746" t="s">
         <v>8</v>
@@ -19492,13 +19472,13 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E747" t="s">
         <v>10</v>
       </c>
       <c r="F747" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G747" s="1">
         <v>44830</v>
@@ -19506,13 +19486,13 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E748" t="s">
         <v>87</v>
       </c>
       <c r="F748" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G748" s="1">
         <v>45935</v>
@@ -19520,7 +19500,7 @@
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B749" t="s">
         <v>78</v>
@@ -19543,13 +19523,13 @@
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E750" t="s">
         <v>10</v>
       </c>
       <c r="F750" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G750" s="1">
         <v>45922</v>
@@ -19557,13 +19537,13 @@
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E751" t="s">
         <v>16</v>
       </c>
       <c r="F751" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G751" s="1">
         <v>45922</v>
@@ -19571,13 +19551,13 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E752" t="s">
         <v>26</v>
       </c>
       <c r="F752" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G752" s="1">
         <v>45922</v>
@@ -19585,13 +19565,13 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E753" t="s">
         <v>10</v>
       </c>
       <c r="F753" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G753" s="1">
         <v>45886</v>
@@ -19599,13 +19579,13 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E754" t="s">
         <v>16</v>
       </c>
       <c r="F754" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G754" s="1">
         <v>45886</v>
@@ -19613,13 +19593,13 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E755" t="s">
         <v>26</v>
       </c>
       <c r="F755" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G755" s="1">
         <v>45886</v>
@@ -19627,13 +19607,13 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E756" t="s">
         <v>10</v>
       </c>
       <c r="F756" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G756" s="1">
         <v>45989</v>
@@ -19641,13 +19621,13 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E757" t="s">
         <v>16</v>
       </c>
       <c r="F757" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G757" s="1">
         <v>45989</v>
@@ -19655,13 +19635,13 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E758" t="s">
         <v>26</v>
       </c>
       <c r="F758" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G758" s="1">
         <v>45989</v>
@@ -19669,13 +19649,13 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E759" t="s">
         <v>10</v>
       </c>
       <c r="F759" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G759" s="1">
         <v>45898</v>
@@ -19683,13 +19663,13 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E760" t="s">
         <v>16</v>
       </c>
       <c r="F760" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G760" s="1">
         <v>45898</v>
@@ -19697,13 +19677,13 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E761" t="s">
         <v>26</v>
       </c>
       <c r="F761" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G761" s="1">
         <v>45899</v>
@@ -19711,7 +19691,7 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B762" t="s">
         <v>24</v>
@@ -19734,7 +19714,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B763" t="s">
         <v>24</v>
@@ -19757,27 +19737,27 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E764" t="s">
         <v>87</v>
       </c>
       <c r="F764" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G764" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E765" t="s">
         <v>10</v>
       </c>
       <c r="F765" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G765" s="1">
         <v>45617</v>
@@ -19785,13 +19765,13 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E766" t="s">
         <v>10</v>
       </c>
       <c r="F766" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G766" s="1">
         <v>45975</v>
@@ -19799,13 +19779,13 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E767" t="s">
         <v>26</v>
       </c>
       <c r="F767" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G767" s="1">
         <v>45975</v>
@@ -19813,13 +19793,13 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
+        <v>396</v>
+      </c>
+      <c r="E768" t="s">
+        <v>10</v>
+      </c>
+      <c r="F768" t="s">
         <v>397</v>
-      </c>
-      <c r="E768" t="s">
-        <v>10</v>
-      </c>
-      <c r="F768" t="s">
-        <v>398</v>
       </c>
       <c r="G768" s="1">
         <v>46253</v>
@@ -19827,13 +19807,13 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E769" t="s">
         <v>16</v>
       </c>
       <c r="F769" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G769" s="1">
         <v>46253</v>
@@ -19841,13 +19821,13 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E770" t="s">
         <v>26</v>
       </c>
       <c r="F770" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G770" s="1">
         <v>46253</v>
@@ -19855,13 +19835,13 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E771" t="s">
         <v>87</v>
       </c>
       <c r="F771" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G771" s="1">
         <v>45968</v>
@@ -19869,13 +19849,13 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E772" t="s">
         <v>10</v>
       </c>
       <c r="F772" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G772" s="1">
         <v>45894</v>
@@ -19883,13 +19863,13 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E773" t="s">
         <v>16</v>
       </c>
       <c r="F773" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G773" s="1">
         <v>45894</v>
@@ -19897,13 +19877,13 @@
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E774" t="s">
         <v>26</v>
       </c>
       <c r="F774" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G774" s="1">
         <v>45894</v>
@@ -19911,13 +19891,13 @@
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E775" t="s">
         <v>10</v>
       </c>
       <c r="F775" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G775" s="1">
         <v>45887</v>
@@ -19925,13 +19905,13 @@
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E776" t="s">
         <v>10</v>
       </c>
       <c r="F776" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G776" s="1">
         <v>45909</v>
@@ -19939,18 +19919,18 @@
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E778" t="s">
         <v>10</v>
       </c>
       <c r="F778" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G778" s="1">
         <v>45912</v>
@@ -19958,18 +19938,18 @@
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E780" t="s">
         <v>16</v>
       </c>
       <c r="F780" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G780" s="1">
         <v>45911</v>
@@ -19977,18 +19957,18 @@
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E782" t="s">
         <v>26</v>
       </c>
       <c r="F782" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G782" s="1">
         <v>45911</v>
@@ -19996,7 +19976,7 @@
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B783" t="s">
         <v>24</v>
@@ -20019,7 +19999,7 @@
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B784" t="s">
         <v>24</v>
@@ -20042,13 +20022,13 @@
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
+        <v>405</v>
+      </c>
+      <c r="E785" t="s">
+        <v>10</v>
+      </c>
+      <c r="F785" t="s">
         <v>406</v>
-      </c>
-      <c r="E785" t="s">
-        <v>10</v>
-      </c>
-      <c r="F785" t="s">
-        <v>407</v>
       </c>
       <c r="G785" s="1">
         <v>44909</v>
@@ -20056,7 +20036,7 @@
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B786" t="s">
         <v>44</v>
@@ -20079,7 +20059,7 @@
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B787" t="s">
         <v>8</v>
@@ -20102,21 +20082,21 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
+        <v>409</v>
+      </c>
+      <c r="E788" t="s">
+        <v>10</v>
+      </c>
+      <c r="F788" t="s">
+        <v>326</v>
+      </c>
+      <c r="G788" t="s">
         <v>410</v>
-      </c>
-      <c r="E788" t="s">
-        <v>10</v>
-      </c>
-      <c r="F788" t="s">
-        <v>327</v>
-      </c>
-      <c r="G788" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B789" t="s">
         <v>24</v>
@@ -20139,13 +20119,13 @@
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E790" t="s">
         <v>10</v>
       </c>
       <c r="F790" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G790" s="1">
         <v>45912</v>
@@ -20153,13 +20133,13 @@
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E791" t="s">
         <v>16</v>
       </c>
       <c r="F791" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G791" s="1">
         <v>45912</v>
@@ -20167,13 +20147,13 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E792" t="s">
         <v>26</v>
       </c>
       <c r="F792" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G792" s="1">
         <v>45912</v>
@@ -20181,7 +20161,7 @@
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B793" t="s">
         <v>24</v>
@@ -20204,13 +20184,13 @@
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
+        <v>414</v>
+      </c>
+      <c r="E794" t="s">
+        <v>10</v>
+      </c>
+      <c r="F794" t="s">
         <v>415</v>
-      </c>
-      <c r="E794" t="s">
-        <v>10</v>
-      </c>
-      <c r="F794" t="s">
-        <v>416</v>
       </c>
       <c r="G794" s="1">
         <v>45993</v>
@@ -20218,13 +20198,13 @@
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E795" t="s">
         <v>16</v>
       </c>
       <c r="F795" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G795" s="1">
         <v>45993</v>
@@ -20232,13 +20212,13 @@
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E796" t="s">
         <v>26</v>
       </c>
       <c r="F796" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G796" s="1">
         <v>45995</v>
@@ -20246,13 +20226,13 @@
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E797" t="s">
         <v>10</v>
       </c>
       <c r="F797" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G797" s="1">
         <v>46021</v>
@@ -20260,13 +20240,13 @@
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E798" t="s">
         <v>50</v>
       </c>
       <c r="F798" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G798" s="1">
         <v>46079</v>
@@ -20274,13 +20254,13 @@
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E799" t="s">
         <v>10</v>
       </c>
       <c r="F799" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G799" s="1">
         <v>45989</v>
@@ -20288,13 +20268,13 @@
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E800" t="s">
         <v>16</v>
       </c>
       <c r="F800" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G800" s="1">
         <v>45989</v>
@@ -20302,13 +20282,13 @@
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E801" t="s">
         <v>26</v>
       </c>
       <c r="F801" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G801" s="1">
         <v>45989</v>
@@ -20316,13 +20296,13 @@
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E802" t="s">
         <v>10</v>
       </c>
       <c r="F802" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G802" s="1">
         <v>46033</v>
@@ -20330,13 +20310,13 @@
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E803" t="s">
         <v>16</v>
       </c>
       <c r="F803" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G803" s="1">
         <v>46032</v>
@@ -20344,13 +20324,13 @@
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E804" t="s">
         <v>26</v>
       </c>
       <c r="F804" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G804" s="1">
         <v>46032</v>
@@ -20358,13 +20338,13 @@
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E805" t="s">
         <v>83</v>
       </c>
       <c r="F805" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G805" s="1">
         <v>45570</v>
@@ -20372,13 +20352,13 @@
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E806" t="s">
         <v>83</v>
       </c>
       <c r="F806" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G806" s="1">
         <v>46431</v>
@@ -20386,13 +20366,13 @@
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E807" t="s">
         <v>83</v>
       </c>
       <c r="F807" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G807" s="1">
         <v>45549</v>
@@ -20400,13 +20380,13 @@
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E808" t="s">
         <v>10</v>
       </c>
       <c r="F808" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G808" s="1">
         <v>45888</v>
@@ -20414,7 +20394,7 @@
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B809" t="s">
         <v>78</v>
@@ -20437,7 +20417,7 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B810" t="s">
         <v>24</v>
@@ -20460,7 +20440,7 @@
     </row>
     <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B811" t="s">
         <v>24</v>
@@ -20483,7 +20463,7 @@
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B812" t="s">
         <v>24</v>
@@ -20506,7 +20486,7 @@
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B813" t="s">
         <v>24</v>
@@ -20529,7 +20509,7 @@
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E814" t="s">
         <v>10</v>
@@ -20546,7 +20526,7 @@
         <v>10</v>
       </c>
       <c r="F815" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G815" s="1">
         <v>46542</v>
@@ -20554,13 +20534,13 @@
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E816" t="s">
         <v>10</v>
       </c>
       <c r="F816" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G816" s="1">
         <v>46083</v>
@@ -20568,13 +20548,13 @@
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E817" t="s">
         <v>65</v>
       </c>
       <c r="F817" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G817" s="1">
         <v>45668</v>
@@ -20582,13 +20562,13 @@
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E818" t="s">
         <v>10</v>
       </c>
       <c r="F818" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G818" s="1">
         <v>46258</v>
@@ -20596,13 +20576,13 @@
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E819" t="s">
         <v>16</v>
       </c>
       <c r="F819" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G819" s="1">
         <v>46276</v>
@@ -20610,13 +20590,13 @@
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E820" t="s">
         <v>26</v>
       </c>
       <c r="F820" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G820" s="1">
         <v>46195</v>
@@ -20627,7 +20607,7 @@
         <v>10</v>
       </c>
       <c r="F821" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G821" s="1">
         <v>45631</v>
@@ -20638,7 +20618,7 @@
         <v>26</v>
       </c>
       <c r="F822" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G822" s="1">
         <v>46408</v>
@@ -20649,7 +20629,7 @@
         <v>10</v>
       </c>
       <c r="F823" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G823" s="1">
         <v>46356</v>
@@ -20657,13 +20637,13 @@
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E824" t="s">
         <v>65</v>
       </c>
       <c r="F824" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G824" s="1">
         <v>45521</v>
@@ -20677,7 +20657,7 @@
         <v>10</v>
       </c>
       <c r="F825" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G825" s="1">
         <v>45565</v>
@@ -20691,7 +20671,7 @@
         <v>16</v>
       </c>
       <c r="F826" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G826" s="1">
         <v>45565</v>
@@ -20705,7 +20685,7 @@
         <v>26</v>
       </c>
       <c r="F827" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G827" s="1">
         <v>45565</v>
@@ -20713,7 +20693,7 @@
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D828" t="s">
         <v>14</v>
@@ -20722,7 +20702,7 @@
         <v>10</v>
       </c>
       <c r="F828" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G828" s="1">
         <v>45513</v>
@@ -20730,7 +20710,7 @@
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D829" t="s">
         <v>14</v>
@@ -20739,7 +20719,7 @@
         <v>16</v>
       </c>
       <c r="F829" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G829" s="1">
         <v>45513</v>
@@ -20747,7 +20727,7 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D830" t="s">
         <v>14</v>
@@ -20756,7 +20736,7 @@
         <v>26</v>
       </c>
       <c r="F830" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G830" s="1">
         <v>45513</v>
@@ -20767,7 +20747,7 @@
         <v>65</v>
       </c>
       <c r="F831" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G831" s="1">
         <v>45757</v>
@@ -20775,7 +20755,7 @@
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B832" t="s">
         <v>8</v>
@@ -20798,7 +20778,7 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B833" t="s">
         <v>24</v>
@@ -20821,7 +20801,7 @@
     </row>
     <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B834" t="s">
         <v>24</v>
@@ -20844,7 +20824,7 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B835" t="s">
         <v>24</v>
@@ -20867,13 +20847,13 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
+        <v>435</v>
+      </c>
+      <c r="E836" t="s">
+        <v>10</v>
+      </c>
+      <c r="F836" t="s">
         <v>436</v>
-      </c>
-      <c r="E836" t="s">
-        <v>10</v>
-      </c>
-      <c r="F836" t="s">
-        <v>437</v>
       </c>
       <c r="G836" s="1">
         <v>45998</v>
@@ -20881,7 +20861,7 @@
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B837" t="s">
         <v>24</v>
@@ -20904,13 +20884,13 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E838" t="s">
         <v>16</v>
       </c>
       <c r="F838" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G838" s="1">
         <v>46004</v>
@@ -20918,13 +20898,13 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E839" t="s">
         <v>26</v>
       </c>
       <c r="F839" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G839" s="1">
         <v>46004</v>
@@ -20935,7 +20915,7 @@
         <v>10</v>
       </c>
       <c r="F840" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G840" s="1">
         <v>45839</v>
@@ -20946,7 +20926,7 @@
         <v>16</v>
       </c>
       <c r="F841" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G841" s="1">
         <v>45840</v>
@@ -20957,7 +20937,7 @@
         <v>26</v>
       </c>
       <c r="F842" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G842" s="1">
         <v>45840</v>
@@ -20965,7 +20945,7 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B843" t="s">
         <v>8</v>
@@ -20988,7 +20968,7 @@
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B844" t="s">
         <v>8</v>
@@ -21011,7 +20991,7 @@
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B845" t="s">
         <v>8</v>
@@ -21034,7 +21014,7 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B846" t="s">
         <v>8</v>
@@ -21057,7 +21037,7 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B847" t="s">
         <v>8</v>
@@ -21083,7 +21063,7 @@
         <v>10</v>
       </c>
       <c r="F848" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G848" s="1">
         <v>45989</v>
@@ -21091,13 +21071,13 @@
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E849" t="s">
         <v>10</v>
       </c>
       <c r="F849" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G849" t="e">
         <v>#REF!</v>
@@ -21105,13 +21085,13 @@
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E850" t="s">
         <v>16</v>
       </c>
       <c r="F850" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G850" t="e">
         <v>#REF!</v>
@@ -21119,13 +21099,13 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E851" t="s">
         <v>26</v>
       </c>
       <c r="F851" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G851" t="e">
         <v>#REF!</v>
@@ -21133,7 +21113,7 @@
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B852" t="s">
         <v>24</v>
@@ -21156,7 +21136,7 @@
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B853" t="s">
         <v>8</v>
@@ -21179,7 +21159,7 @@
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B854" t="s">
         <v>24</v>
@@ -21202,7 +21182,7 @@
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B855" t="s">
         <v>24</v>
@@ -21214,7 +21194,7 @@
         <v>9</v>
       </c>
       <c r="E855" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F855" t="s">
         <v>11</v>
@@ -21225,13 +21205,13 @@
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E856" t="s">
         <v>10</v>
       </c>
       <c r="F856" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G856" t="e">
         <v>#REF!</v>
@@ -21239,7 +21219,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B857" t="s">
         <v>24</v>
@@ -21262,7 +21242,7 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B858" t="s">
         <v>24</v>
@@ -21285,7 +21265,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B859" t="s">
         <v>24</v>
@@ -21308,7 +21288,7 @@
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B860" t="s">
         <v>24</v>
@@ -21331,7 +21311,7 @@
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D861" t="s">
         <v>9</v>
@@ -21348,7 +21328,7 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B862" t="s">
         <v>24</v>
@@ -21371,7 +21351,7 @@
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B863" t="s">
         <v>24</v>
@@ -21394,7 +21374,7 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B864" t="s">
         <v>24</v>
@@ -21417,7 +21397,7 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B865" t="s">
         <v>24</v>
@@ -21440,7 +21420,7 @@
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B866" t="s">
         <v>24</v>
@@ -21463,7 +21443,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B867" t="s">
         <v>24</v>
@@ -21486,7 +21466,7 @@
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B868" t="s">
         <v>24</v>
@@ -21509,7 +21489,7 @@
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C869">
         <v>323358650</v>
@@ -21529,7 +21509,7 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C870">
         <v>323358650</v>
@@ -21552,7 +21532,7 @@
         <v>10</v>
       </c>
       <c r="F871" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G871" s="1">
         <v>46082</v>
@@ -21563,7 +21543,7 @@
         <v>16</v>
       </c>
       <c r="F872" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G872" s="1">
         <v>46082</v>
@@ -21574,7 +21554,7 @@
         <v>26</v>
       </c>
       <c r="F873" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G873" s="1">
         <v>46082</v>
@@ -21582,10 +21562,10 @@
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
+        <v>452</v>
+      </c>
+      <c r="B874" t="s">
         <v>453</v>
-      </c>
-      <c r="B874" t="s">
-        <v>454</v>
       </c>
       <c r="C874">
         <v>3904014891</v>
@@ -21605,13 +21585,13 @@
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E875" t="s">
         <v>10</v>
       </c>
       <c r="F875" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G875" s="1">
         <v>46086</v>
@@ -21622,7 +21602,7 @@
         <v>10</v>
       </c>
       <c r="F876" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G876" s="1">
         <v>46108</v>
@@ -21633,7 +21613,7 @@
         <v>16</v>
       </c>
       <c r="F877" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G877" s="1">
         <v>45011</v>
@@ -21641,7 +21621,7 @@
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E878" t="s">
         <v>10</v>
@@ -21655,13 +21635,13 @@
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E879" t="s">
         <v>10</v>
       </c>
       <c r="F879" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G879" s="1">
         <v>46116</v>
@@ -21669,13 +21649,13 @@
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E880" t="s">
         <v>10</v>
       </c>
       <c r="F880" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G880" s="1">
         <v>46109</v>
@@ -21683,7 +21663,7 @@
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B881" t="s">
         <v>24</v>
@@ -21706,7 +21686,7 @@
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B882" t="s">
         <v>44</v>
@@ -21729,13 +21709,13 @@
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
+        <v>460</v>
+      </c>
+      <c r="E883" t="s">
         <v>461</v>
       </c>
-      <c r="E883" t="s">
-        <v>462</v>
-      </c>
       <c r="F883" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G883" s="1">
         <v>46177</v>
@@ -21743,7 +21723,7 @@
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B884" t="s">
         <v>8</v>
@@ -21766,7 +21746,7 @@
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B885" t="s">
         <v>8</v>
@@ -21789,13 +21769,13 @@
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E886" t="s">
         <v>10</v>
       </c>
       <c r="F886" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G886" s="1">
         <v>46153</v>
@@ -21803,13 +21783,13 @@
     </row>
     <row r="887" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E887" t="s">
         <v>65</v>
       </c>
       <c r="F887" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G887" s="1">
         <v>45960</v>
@@ -21817,7 +21797,7 @@
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B888" t="s">
         <v>78</v>
@@ -21840,7 +21820,7 @@
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B889" t="s">
         <v>78</v>
@@ -21863,13 +21843,13 @@
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E890" t="s">
         <v>10</v>
       </c>
       <c r="F890" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G890" s="1">
         <v>46156</v>
@@ -21877,13 +21857,13 @@
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E891" t="s">
         <v>16</v>
       </c>
       <c r="F891" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G891" s="1">
         <v>46156</v>
@@ -21891,13 +21871,13 @@
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E892" t="s">
         <v>26</v>
       </c>
       <c r="F892" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G892" s="1">
         <v>46156</v>
@@ -21905,7 +21885,7 @@
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B893" t="s">
         <v>24</v>
@@ -21928,7 +21908,7 @@
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B894" t="s">
         <v>24</v>
@@ -21951,7 +21931,7 @@
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B895" t="s">
         <v>24</v>
@@ -21974,13 +21954,13 @@
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E896" t="s">
         <v>10</v>
       </c>
       <c r="F896" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G896" s="1">
         <v>45043</v>
@@ -21988,13 +21968,13 @@
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E897" t="s">
         <v>16</v>
       </c>
       <c r="F897" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G897" s="1">
         <v>45043</v>
@@ -22002,13 +21982,13 @@
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E898" t="s">
         <v>26</v>
       </c>
       <c r="F898" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G898" s="1">
         <v>45043</v>
@@ -22016,7 +21996,7 @@
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E899" t="s">
         <v>83</v>
@@ -22030,12 +22010,12 @@
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B901" t="s">
         <v>24</v>
@@ -22058,7 +22038,7 @@
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B902" t="s">
         <v>24</v>
@@ -22081,7 +22061,7 @@
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B903" t="s">
         <v>24</v>
@@ -22104,7 +22084,7 @@
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B904" t="s">
         <v>8</v>
@@ -22127,7 +22107,7 @@
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B905" t="s">
         <v>24</v>
@@ -22153,7 +22133,7 @@
         <v>10</v>
       </c>
       <c r="F906" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G906" t="e">
         <v>#REF!</v>
@@ -22164,7 +22144,7 @@
         <v>16</v>
       </c>
       <c r="F907" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G907" t="e">
         <v>#REF!</v>
@@ -22172,7 +22152,7 @@
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B908" t="s">
         <v>8</v>
@@ -22195,7 +22175,7 @@
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B909" t="s">
         <v>8</v>
@@ -22218,7 +22198,7 @@
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B910" t="s">
         <v>24</v>
@@ -22241,7 +22221,7 @@
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B911" t="s">
         <v>24</v>
@@ -22264,7 +22244,7 @@
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B912" t="s">
         <v>24</v>
@@ -22290,7 +22270,7 @@
         <v>10</v>
       </c>
       <c r="F913" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G913" t="e">
         <v>#REF!</v>
@@ -22301,7 +22281,7 @@
         <v>16</v>
       </c>
       <c r="F914" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G914" t="e">
         <v>#REF!</v>
@@ -22312,7 +22292,7 @@
         <v>26</v>
       </c>
       <c r="F915" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G915" t="e">
         <v>#REF!</v>
@@ -22323,7 +22303,7 @@
         <v>10</v>
       </c>
       <c r="F916" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G916" t="e">
         <v>#REF!</v>
@@ -22334,7 +22314,7 @@
         <v>16</v>
       </c>
       <c r="F917" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G917" t="e">
         <v>#REF!</v>
@@ -22345,7 +22325,7 @@
         <v>26</v>
       </c>
       <c r="F918" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G918" t="e">
         <v>#REF!</v>
@@ -22356,7 +22336,7 @@
         <v>10</v>
       </c>
       <c r="F919" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G919" t="e">
         <v>#REF!</v>
@@ -22367,7 +22347,7 @@
         <v>16</v>
       </c>
       <c r="F920" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G920" t="e">
         <v>#REF!</v>
@@ -22378,7 +22358,7 @@
         <v>26</v>
       </c>
       <c r="F921" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G921" t="e">
         <v>#REF!</v>
@@ -22389,7 +22369,7 @@
         <v>10</v>
       </c>
       <c r="F922" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G922" t="e">
         <v>#REF!</v>
@@ -22400,7 +22380,7 @@
         <v>16</v>
       </c>
       <c r="F923" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G923" t="e">
         <v>#REF!</v>
@@ -22411,7 +22391,7 @@
         <v>26</v>
       </c>
       <c r="F924" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G924" t="e">
         <v>#REF!</v>
@@ -22422,7 +22402,7 @@
         <v>10</v>
       </c>
       <c r="F925" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G925" t="e">
         <v>#REF!</v>
@@ -22433,7 +22413,7 @@
         <v>16</v>
       </c>
       <c r="F926" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G926" t="e">
         <v>#REF!</v>
@@ -22444,7 +22424,7 @@
         <v>26</v>
       </c>
       <c r="F927" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G927" t="e">
         <v>#REF!</v>
@@ -22452,10 +22432,10 @@
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
+        <v>481</v>
+      </c>
+      <c r="B928" t="s">
         <v>482</v>
-      </c>
-      <c r="B928" t="s">
-        <v>483</v>
       </c>
       <c r="C928">
         <v>7809022120</v>
@@ -22475,10 +22455,10 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
+        <v>481</v>
+      </c>
+      <c r="B929" t="s">
         <v>482</v>
-      </c>
-      <c r="B929" t="s">
-        <v>483</v>
       </c>
       <c r="C929">
         <v>7809022120</v>
@@ -22501,7 +22481,7 @@
         <v>10</v>
       </c>
       <c r="F930" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G930" t="e">
         <v>#REF!</v>
@@ -22512,7 +22492,7 @@
         <v>16</v>
       </c>
       <c r="F931" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G931" t="e">
         <v>#REF!</v>
@@ -22523,7 +22503,7 @@
         <v>26</v>
       </c>
       <c r="F932" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G932" t="e">
         <v>#REF!</v>
@@ -22531,13 +22511,13 @@
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E933" t="s">
         <v>10</v>
       </c>
       <c r="F933" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G933" s="1">
         <v>46095</v>
@@ -22545,7 +22525,7 @@
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B934" t="s">
         <v>8</v>
@@ -22568,7 +22548,7 @@
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B935" t="s">
         <v>78</v>
@@ -22591,13 +22571,13 @@
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E936" t="s">
         <v>10</v>
       </c>
       <c r="F936" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G936" s="1">
         <v>46195</v>
@@ -22605,13 +22585,13 @@
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E937" t="s">
         <v>16</v>
       </c>
       <c r="F937" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G937" s="1">
         <v>46201</v>
@@ -22619,13 +22599,13 @@
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E938" t="s">
         <v>26</v>
       </c>
       <c r="F938" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G938" s="1">
         <v>45100</v>
@@ -22636,7 +22616,7 @@
         <v>10</v>
       </c>
       <c r="F939" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G939" t="e">
         <v>#REF!</v>
@@ -22644,7 +22624,7 @@
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B940" t="s">
         <v>24</v>
@@ -22662,12 +22642,12 @@
         <v>11</v>
       </c>
       <c r="G940" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B941" t="s">
         <v>24</v>
@@ -22693,7 +22673,7 @@
         <v>10</v>
       </c>
       <c r="F942" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G942" t="e">
         <v>#REF!</v>
@@ -22701,7 +22681,7 @@
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B943" t="s">
         <v>24</v>
@@ -22724,7 +22704,7 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B944" t="s">
         <v>24</v>
@@ -22736,7 +22716,7 @@
         <v>199</v>
       </c>
       <c r="E944" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F944" t="s">
         <v>11</v>
@@ -22747,7 +22727,7 @@
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B945" t="s">
         <v>24</v>
@@ -22770,7 +22750,7 @@
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E946" t="s">
         <v>83</v>
@@ -22779,12 +22759,12 @@
         <v>84</v>
       </c>
       <c r="G946" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E947" t="s">
         <v>10</v>
@@ -22798,7 +22778,7 @@
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E948" t="s">
         <v>16</v>
@@ -22815,7 +22795,7 @@
         <v>10</v>
       </c>
       <c r="F949" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G949" t="e">
         <v>#REF!</v>
@@ -22826,7 +22806,7 @@
         <v>10</v>
       </c>
       <c r="F950" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G950" t="e">
         <v>#REF!</v>
@@ -22837,7 +22817,7 @@
         <v>16</v>
       </c>
       <c r="F951" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G951" t="e">
         <v>#REF!</v>
@@ -22848,7 +22828,7 @@
         <v>26</v>
       </c>
       <c r="F952" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G952" t="e">
         <v>#REF!</v>
@@ -22856,13 +22836,13 @@
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E953" t="s">
         <v>10</v>
       </c>
       <c r="F953" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G953" s="1">
         <v>46206</v>
@@ -22870,7 +22850,7 @@
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D954" t="s">
         <v>9</v>
@@ -22879,7 +22859,7 @@
         <v>52</v>
       </c>
       <c r="F954" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G954" s="1">
         <v>46171</v>
@@ -22887,7 +22867,7 @@
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B955" t="s">
         <v>24</v>
@@ -22910,27 +22890,27 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E956" t="s">
         <v>83</v>
       </c>
       <c r="F956" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G956" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E957" t="s">
         <v>65</v>
       </c>
       <c r="F957" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G957" s="1">
         <v>45960</v>
@@ -22938,13 +22918,13 @@
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E958" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F958" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G958" s="1">
         <v>46206</v>
@@ -22952,13 +22932,13 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E959" t="s">
         <v>10</v>
       </c>
       <c r="F959" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G959" s="1">
         <v>46213</v>
@@ -22966,7 +22946,7 @@
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B960" t="s">
         <v>24</v>
@@ -22989,7 +22969,7 @@
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B961" t="s">
         <v>24</v>
@@ -23012,7 +22992,7 @@
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B962" t="s">
         <v>8</v>
@@ -23035,7 +23015,7 @@
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B963" t="s">
         <v>8</v>
@@ -23058,7 +23038,7 @@
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B964" t="s">
         <v>8</v>
@@ -23081,7 +23061,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B965" t="s">
         <v>8</v>
@@ -23104,7 +23084,7 @@
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B966" t="s">
         <v>8</v>
@@ -23127,13 +23107,13 @@
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E967" t="s">
         <v>10</v>
       </c>
       <c r="F967" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G967" s="1">
         <v>46321</v>
@@ -23141,13 +23121,13 @@
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E968" t="s">
         <v>16</v>
       </c>
       <c r="F968" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G968" s="1">
         <v>46373</v>
@@ -23155,13 +23135,13 @@
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E969" t="s">
         <v>26</v>
       </c>
       <c r="F969" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G969" s="1">
         <v>46017</v>
@@ -23169,13 +23149,13 @@
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E970" t="s">
         <v>50</v>
       </c>
       <c r="F970" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G970" s="1">
         <v>45515</v>
@@ -23183,13 +23163,13 @@
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E971" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F971" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G971" s="1">
         <v>46241</v>
@@ -23197,7 +23177,7 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B972" t="s">
         <v>8</v>
@@ -23226,7 +23206,7 @@
         <v>10</v>
       </c>
       <c r="F973" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G973" t="e">
         <v>#REF!</v>
@@ -23237,7 +23217,7 @@
         <v>16</v>
       </c>
       <c r="F974" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G974" t="e">
         <v>#REF!</v>
@@ -23248,7 +23228,7 @@
         <v>26</v>
       </c>
       <c r="F975" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G975" t="e">
         <v>#REF!</v>
@@ -23256,7 +23236,7 @@
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B976" t="s">
         <v>24</v>
@@ -23282,7 +23262,7 @@
         <v>10</v>
       </c>
       <c r="F977" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G977" t="e">
         <v>#REF!</v>
@@ -23293,7 +23273,7 @@
         <v>10</v>
       </c>
       <c r="F978" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G978" t="e">
         <v>#REF!</v>
@@ -23304,7 +23284,7 @@
         <v>10</v>
       </c>
       <c r="F979" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G979" t="e">
         <v>#REF!</v>
@@ -23315,7 +23295,7 @@
         <v>16</v>
       </c>
       <c r="F980" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G980" t="e">
         <v>#REF!</v>
@@ -23326,7 +23306,7 @@
         <v>26</v>
       </c>
       <c r="F981" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G981" t="e">
         <v>#REF!</v>
@@ -23337,7 +23317,7 @@
         <v>10</v>
       </c>
       <c r="F982" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G982" t="e">
         <v>#REF!</v>
@@ -23348,7 +23328,7 @@
         <v>16</v>
       </c>
       <c r="F983" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G983" t="e">
         <v>#REF!</v>
@@ -23359,7 +23339,7 @@
         <v>26</v>
       </c>
       <c r="F984" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G984" t="e">
         <v>#REF!</v>
@@ -23370,7 +23350,7 @@
         <v>10</v>
       </c>
       <c r="F985" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G985" t="e">
         <v>#REF!</v>
@@ -23381,7 +23361,7 @@
         <v>87</v>
       </c>
       <c r="F986" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G986" t="e">
         <v>#REF!</v>
@@ -23392,7 +23372,7 @@
         <v>10</v>
       </c>
       <c r="F987" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G987" t="e">
         <v>#REF!</v>
@@ -23403,7 +23383,7 @@
         <v>16</v>
       </c>
       <c r="F988" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G988" t="e">
         <v>#REF!</v>
@@ -23414,7 +23394,7 @@
         <v>87</v>
       </c>
       <c r="F989" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G989" t="e">
         <v>#REF!</v>
@@ -23422,7 +23402,7 @@
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B990" t="s">
         <v>24</v>
@@ -23445,7 +23425,7 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B991" t="s">
         <v>24</v>
@@ -23462,7 +23442,7 @@
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B992" t="s">
         <v>24</v>
@@ -23479,7 +23459,7 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B993" t="s">
         <v>24</v>
@@ -23505,7 +23485,7 @@
         <v>10</v>
       </c>
       <c r="F994" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G994" t="e">
         <v>#REF!</v>
@@ -23516,7 +23496,7 @@
         <v>10</v>
       </c>
       <c r="F995" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G995" t="e">
         <v>#REF!</v>
@@ -23527,7 +23507,7 @@
         <v>16</v>
       </c>
       <c r="F996" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G996" t="e">
         <v>#REF!</v>
@@ -23538,7 +23518,7 @@
         <v>26</v>
       </c>
       <c r="F997" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G997" t="e">
         <v>#REF!</v>
@@ -23549,7 +23529,7 @@
         <v>10</v>
       </c>
       <c r="F998" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G998" s="1">
         <v>45090</v>
@@ -23560,7 +23540,7 @@
         <v>10</v>
       </c>
       <c r="F999" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G999" s="1">
         <v>46206</v>
@@ -23568,7 +23548,7 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B1000" t="s">
         <v>24</v>
@@ -23591,7 +23571,7 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B1001" t="s">
         <v>24</v>
@@ -23614,7 +23594,7 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1002" t="s">
         <v>24</v>
@@ -23637,7 +23617,7 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1003" t="s">
         <v>24</v>
@@ -23660,15 +23640,15 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1006" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C1006">
         <v>7729050901</v>
@@ -23688,13 +23668,13 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E1007" t="s">
         <v>16</v>
       </c>
       <c r="F1007" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1007" s="1">
         <v>46243</v>
@@ -23702,7 +23682,7 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1008" t="s">
         <v>24</v>
@@ -23725,7 +23705,7 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B1009" t="s">
         <v>24</v>
@@ -23748,7 +23728,7 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B1010" t="s">
         <v>24</v>
@@ -23760,7 +23740,7 @@
         <v>9</v>
       </c>
       <c r="E1010" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F1010" t="s">
         <v>11</v>
@@ -23771,13 +23751,13 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E1011" t="s">
         <v>10</v>
       </c>
       <c r="F1011" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1011" s="1">
         <v>46270</v>
@@ -23785,13 +23765,13 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E1012" t="s">
         <v>87</v>
       </c>
       <c r="F1012" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1012" s="1">
         <v>46301</v>
@@ -23799,13 +23779,13 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E1013" t="s">
         <v>65</v>
       </c>
       <c r="F1013" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1013" s="1">
         <v>45960</v>
@@ -23813,13 +23793,13 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E1014" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F1014" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1014" s="1">
         <v>46418</v>
@@ -23827,7 +23807,7 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B1015" t="s">
         <v>8</v>
@@ -23850,7 +23830,7 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B1016" t="s">
         <v>8</v>
@@ -23873,7 +23853,7 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1017" t="s">
         <v>24</v>
@@ -23896,7 +23876,7 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1018" t="s">
         <v>24</v>
@@ -23919,7 +23899,7 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1019" t="s">
         <v>24</v>
@@ -23942,7 +23922,7 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1020" t="s">
         <v>24</v>
@@ -23965,13 +23945,13 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1021" t="s">
         <v>10</v>
       </c>
       <c r="F1021" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1021" s="1">
         <v>46277</v>
@@ -23979,13 +23959,13 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E1022" t="s">
         <v>10</v>
       </c>
       <c r="F1022" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1022" s="1">
         <v>46297</v>
@@ -23993,7 +23973,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1023" t="s">
         <v>24</v>
@@ -24016,7 +23996,7 @@
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1024" t="s">
         <v>24</v>
@@ -24039,7 +24019,7 @@
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1025" t="s">
         <v>24</v>
@@ -24062,7 +24042,7 @@
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1026" t="s">
         <v>24</v>
@@ -24085,7 +24065,7 @@
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1027" t="s">
         <v>24</v>
@@ -24108,13 +24088,13 @@
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E1028" t="s">
         <v>52</v>
       </c>
       <c r="F1028" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1028" t="e">
         <v>#REF!</v>
@@ -24122,13 +24102,13 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E1029" t="s">
         <v>10</v>
       </c>
       <c r="F1029" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1029" s="1">
         <v>46249</v>
@@ -24136,7 +24116,7 @@
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1030" t="s">
         <v>8</v>
@@ -24162,7 +24142,7 @@
         <v>10</v>
       </c>
       <c r="F1031" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1031" s="1">
         <v>45837</v>
@@ -24173,7 +24153,7 @@
         <v>16</v>
       </c>
       <c r="F1032" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1032" s="1">
         <v>45837</v>
@@ -24184,7 +24164,7 @@
         <v>26</v>
       </c>
       <c r="F1033" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1033" s="1">
         <v>45837</v>
@@ -24195,7 +24175,7 @@
         <v>10</v>
       </c>
       <c r="F1034" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1034" s="1">
         <v>45838</v>
@@ -24206,7 +24186,7 @@
         <v>16</v>
       </c>
       <c r="F1035" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1035" s="1">
         <v>45838</v>
@@ -24217,7 +24197,7 @@
         <v>26</v>
       </c>
       <c r="F1036" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1036" s="1">
         <v>45838</v>
@@ -24228,7 +24208,7 @@
         <v>10</v>
       </c>
       <c r="F1037" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1037" s="1">
         <v>45838</v>
@@ -24239,7 +24219,7 @@
         <v>16</v>
       </c>
       <c r="F1038" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1038" s="1">
         <v>45837</v>
@@ -24250,7 +24230,7 @@
         <v>26</v>
       </c>
       <c r="F1039" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1039" s="1">
         <v>45837</v>
@@ -24261,7 +24241,7 @@
         <v>10</v>
       </c>
       <c r="F1040" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1040" s="1">
         <v>45838</v>
@@ -24272,7 +24252,7 @@
         <v>16</v>
       </c>
       <c r="F1041" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1041" s="1">
         <v>45838</v>
@@ -24283,7 +24263,7 @@
         <v>26</v>
       </c>
       <c r="F1042" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1042" s="1">
         <v>45838</v>
@@ -24294,7 +24274,7 @@
         <v>10</v>
       </c>
       <c r="F1043" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1043" s="1">
         <v>45838</v>
@@ -24305,7 +24285,7 @@
         <v>16</v>
       </c>
       <c r="F1044" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1044" s="1">
         <v>45838</v>
@@ -24316,7 +24296,7 @@
         <v>26</v>
       </c>
       <c r="F1045" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1045" s="1">
         <v>45838</v>
@@ -24324,7 +24304,7 @@
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B1046" t="s">
         <v>44</v>
@@ -24347,10 +24327,10 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1047" t="s">
         <v>526</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>527</v>
       </c>
       <c r="C1047">
         <v>7717043113</v>
@@ -24370,7 +24350,7 @@
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B1048" t="s">
         <v>8</v>
@@ -24393,7 +24373,7 @@
     </row>
     <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B1049" t="s">
         <v>8</v>
@@ -24416,7 +24396,7 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B1050" t="s">
         <v>8</v>
@@ -24439,7 +24419,7 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E1051" t="s">
         <v>83</v>
@@ -24453,13 +24433,13 @@
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E1052" t="s">
         <v>10</v>
       </c>
       <c r="F1052" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1052" s="1">
         <v>45556</v>
@@ -24467,13 +24447,13 @@
     </row>
     <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E1053" t="s">
         <v>16</v>
       </c>
       <c r="F1053" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1053" s="1">
         <v>46265</v>
@@ -24481,7 +24461,7 @@
     </row>
     <row r="1054" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B1054" t="s">
         <v>24</v>
@@ -24504,7 +24484,7 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B1055" t="s">
         <v>24</v>
@@ -24527,13 +24507,13 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E1056" t="s">
         <v>87</v>
       </c>
       <c r="F1056" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1056" s="1">
         <v>46345</v>
@@ -24541,13 +24521,13 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1057" t="s">
         <v>10</v>
       </c>
       <c r="F1057" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1057" s="1">
         <v>46358</v>
@@ -24555,13 +24535,13 @@
     </row>
     <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1058" t="s">
         <v>16</v>
       </c>
       <c r="F1058" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1058" s="1">
         <v>46345</v>
@@ -24569,13 +24549,13 @@
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E1059" t="s">
         <v>26</v>
       </c>
       <c r="F1059" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1059" s="1">
         <v>46380</v>
@@ -24583,7 +24563,7 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B1060" t="s">
         <v>24</v>
@@ -24606,7 +24586,7 @@
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B1061" t="s">
         <v>24</v>
@@ -24629,7 +24609,7 @@
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1062" t="s">
         <v>24</v>
@@ -24652,7 +24632,7 @@
     </row>
     <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1063" t="s">
         <v>24</v>
@@ -24675,7 +24655,7 @@
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B1064" t="s">
         <v>24</v>
@@ -24701,7 +24681,7 @@
         <v>10</v>
       </c>
       <c r="F1065" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1065" t="e">
         <v>#REF!</v>
@@ -24712,7 +24692,7 @@
         <v>16</v>
       </c>
       <c r="F1066" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1066" t="e">
         <v>#REF!</v>
@@ -24723,7 +24703,7 @@
         <v>26</v>
       </c>
       <c r="F1067" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1067" t="e">
         <v>#REF!</v>
@@ -24734,7 +24714,7 @@
         <v>10</v>
       </c>
       <c r="F1068" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1068" t="e">
         <v>#REF!</v>
@@ -24745,7 +24725,7 @@
         <v>16</v>
       </c>
       <c r="F1069" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1069" t="e">
         <v>#REF!</v>
@@ -24756,7 +24736,7 @@
         <v>26</v>
       </c>
       <c r="F1070" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1070" t="e">
         <v>#REF!</v>
@@ -24764,7 +24744,7 @@
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1071" t="s">
         <v>8</v>
@@ -24787,7 +24767,7 @@
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1072" t="s">
         <v>24</v>
@@ -24810,7 +24790,7 @@
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1073" t="s">
         <v>24</v>
@@ -24833,7 +24813,7 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E1074" t="s">
         <v>10</v>
@@ -24847,7 +24827,7 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1075" t="s">
         <v>24</v>
@@ -24870,7 +24850,7 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1076" t="s">
         <v>24</v>
@@ -24893,7 +24873,7 @@
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1077" t="s">
         <v>24</v>
@@ -24916,13 +24896,13 @@
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E1078" t="s">
         <v>10</v>
       </c>
       <c r="F1078" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1078" s="1">
         <v>46320</v>
@@ -24930,7 +24910,7 @@
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E1079" t="s">
         <v>10</v>
@@ -24944,7 +24924,7 @@
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E1080" t="s">
         <v>10</v>
@@ -24958,7 +24938,7 @@
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E1081" t="s">
         <v>10</v>
@@ -24972,13 +24952,13 @@
     </row>
     <row r="1082" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E1082" t="s">
         <v>10</v>
       </c>
       <c r="F1082" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1082" s="1">
         <v>46318</v>
@@ -24986,13 +24966,13 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E1083" t="s">
         <v>87</v>
       </c>
       <c r="F1083" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1083" s="1">
         <v>46348</v>
@@ -25003,7 +24983,7 @@
         <v>10</v>
       </c>
       <c r="F1084" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1084" s="1">
         <v>45815</v>
@@ -25033,7 +25013,7 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1087" t="s">
         <v>24</v>
@@ -25056,7 +25036,7 @@
     </row>
     <row r="1088" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1088" t="s">
         <v>24</v>
@@ -25079,7 +25059,7 @@
     </row>
     <row r="1089" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1089" t="s">
         <v>24</v>
@@ -25102,7 +25082,7 @@
     </row>
     <row r="1090" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1090" t="s">
         <v>24</v>
@@ -25125,7 +25105,7 @@
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1091" t="s">
         <v>24</v>
@@ -25151,7 +25131,7 @@
         <v>10</v>
       </c>
       <c r="F1092" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1092" s="1">
         <v>46292</v>
@@ -25162,7 +25142,7 @@
         <v>16</v>
       </c>
       <c r="F1093" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1093" s="1">
         <v>46292</v>
@@ -25173,7 +25153,7 @@
         <v>26</v>
       </c>
       <c r="F1094" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1094" s="1">
         <v>46292</v>
@@ -25181,7 +25161,7 @@
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1095" t="s">
         <v>8</v>
@@ -25204,7 +25184,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1096" t="s">
         <v>8</v>
@@ -25227,7 +25207,7 @@
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1097" t="s">
         <v>8</v>
@@ -25253,7 +25233,7 @@
         <v>10</v>
       </c>
       <c r="F1098" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1098" s="1">
         <v>46284</v>
@@ -25261,13 +25241,13 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E1099" t="s">
         <v>10</v>
       </c>
       <c r="F1099" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1099" s="1">
         <v>46372</v>
@@ -25275,13 +25255,13 @@
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E1100" t="s">
         <v>10</v>
       </c>
       <c r="F1100" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1100" s="1">
         <v>46330</v>
@@ -25289,7 +25269,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1101" t="s">
         <v>78</v>
@@ -25312,7 +25292,7 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1102" t="s">
         <v>78</v>
@@ -25335,7 +25315,7 @@
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B1103" t="s">
         <v>24</v>
@@ -25358,7 +25338,7 @@
     </row>
     <row r="1104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B1104" t="s">
         <v>24</v>
@@ -25381,7 +25361,7 @@
     </row>
     <row r="1105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B1105" t="s">
         <v>24</v>
@@ -25407,7 +25387,7 @@
         <v>10</v>
       </c>
       <c r="F1106" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G1106" s="1">
         <v>46316</v>
@@ -25415,7 +25395,7 @@
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1107" t="s">
         <v>24</v>
@@ -25438,7 +25418,7 @@
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B1108" t="s">
         <v>24</v>
@@ -25461,7 +25441,7 @@
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1109" t="s">
         <v>24</v>
@@ -25484,7 +25464,7 @@
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B1110" t="s">
         <v>24</v>
@@ -25507,7 +25487,7 @@
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B1111" t="s">
         <v>24</v>
@@ -25530,7 +25510,7 @@
     </row>
     <row r="1112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B1112" t="s">
         <v>24</v>
@@ -25553,10 +25533,10 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1113" t="s">
         <v>557</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>558</v>
       </c>
       <c r="C1113">
         <v>3443901306</v>
@@ -25576,10 +25556,10 @@
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1114" t="s">
         <v>559</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>560</v>
       </c>
       <c r="C1114">
         <v>3900005663</v>
@@ -25599,10 +25579,10 @@
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1115" t="s">
         <v>559</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>560</v>
       </c>
       <c r="C1115">
         <v>3900005663</v>
@@ -25622,10 +25602,10 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1116" t="s">
         <v>559</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>560</v>
       </c>
       <c r="C1116">
         <v>3900005663</v>
@@ -25645,10 +25625,10 @@
     </row>
     <row r="1117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1117" t="s">
         <v>559</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>560</v>
       </c>
       <c r="C1117">
         <v>3900005663</v>
@@ -25657,7 +25637,7 @@
         <v>14</v>
       </c>
       <c r="E1117" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F1117" t="s">
         <v>11</v>
@@ -25668,10 +25648,10 @@
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1118" t="s">
         <v>559</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>560</v>
       </c>
       <c r="C1118">
         <v>3900005663</v>
@@ -25691,10 +25671,10 @@
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1119" t="s">
         <v>559</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>560</v>
       </c>
       <c r="C1119">
         <v>3900005663</v>
@@ -25714,10 +25694,10 @@
     </row>
     <row r="1120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1120" t="s">
         <v>559</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>560</v>
       </c>
       <c r="C1120">
         <v>3900005663</v>
@@ -25737,13 +25717,13 @@
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E1121" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1121" s="1">
         <v>46355</v>
@@ -25751,7 +25731,7 @@
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1122" t="s">
         <v>24</v>
@@ -25774,13 +25754,13 @@
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E1123" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1123" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1123" s="1">
         <v>45991</v>
@@ -25788,7 +25768,7 @@
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1124" t="s">
         <v>24</v>
@@ -25811,13 +25791,13 @@
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E1125" t="s">
         <v>10</v>
       </c>
       <c r="F1125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1125" s="1">
         <v>46082</v>
@@ -25825,13 +25805,13 @@
     </row>
     <row r="1126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E1126" t="s">
         <v>16</v>
       </c>
       <c r="F1126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1126" s="1">
         <v>46082</v>
@@ -25839,13 +25819,13 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E1127" t="s">
         <v>26</v>
       </c>
       <c r="F1127" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1127" s="1">
         <v>46082</v>
@@ -25853,7 +25833,7 @@
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B1128" t="s">
         <v>24</v>
@@ -25876,7 +25856,7 @@
     </row>
     <row r="1129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B1129" t="s">
         <v>24</v>
@@ -25899,13 +25879,13 @@
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E1130" t="s">
         <v>10</v>
       </c>
       <c r="F1130" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1130" s="1">
         <v>46255</v>
@@ -25913,13 +25893,13 @@
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1131" t="s">
         <v>10</v>
       </c>
       <c r="F1131" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1131" s="1">
         <v>46314</v>
@@ -25927,13 +25907,13 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1132" t="s">
         <v>16</v>
       </c>
       <c r="F1132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1132" s="1">
         <v>46314</v>
@@ -25941,13 +25921,13 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1133" t="s">
         <v>26</v>
       </c>
       <c r="F1133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1133" s="1">
         <v>46314</v>
@@ -25955,13 +25935,13 @@
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E1134" t="s">
         <v>87</v>
       </c>
       <c r="F1134" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1134" s="1">
         <v>46339</v>
@@ -25969,13 +25949,13 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E1135" t="s">
         <v>16</v>
       </c>
       <c r="F1135" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1135" s="1">
         <v>45591</v>
@@ -25983,7 +25963,7 @@
     </row>
     <row r="1136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B1136" t="s">
         <v>8</v>
@@ -26006,7 +25986,7 @@
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B1137" t="s">
         <v>8</v>
@@ -26029,7 +26009,7 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B1138" t="s">
         <v>8</v>
@@ -26052,7 +26032,7 @@
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B1139" t="s">
         <v>8</v>
@@ -26078,7 +26058,7 @@
         <v>10</v>
       </c>
       <c r="F1140" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1140" s="1">
         <v>46292</v>
@@ -26089,7 +26069,7 @@
         <v>16</v>
       </c>
       <c r="F1141" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1141" s="1">
         <v>46292</v>
@@ -26100,7 +26080,7 @@
         <v>26</v>
       </c>
       <c r="F1142" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1142" s="1">
         <v>46292</v>
@@ -26108,7 +26088,7 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B1143" t="s">
         <v>8</v>
@@ -26131,7 +26111,7 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B1144" t="s">
         <v>24</v>
@@ -26154,13 +26134,13 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E1145" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1145" s="1">
         <v>46376</v>
@@ -26168,13 +26148,13 @@
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1146" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1146" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1146" s="1">
         <v>46516</v>
@@ -26182,13 +26162,13 @@
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E1147" t="s">
         <v>10</v>
       </c>
       <c r="F1147" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1147" s="1">
         <v>46358</v>
@@ -26196,13 +26176,13 @@
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E1148" t="s">
         <v>16</v>
       </c>
       <c r="F1148" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1148" s="1">
         <v>45266</v>
@@ -26210,13 +26190,13 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E1149" t="s">
         <v>26</v>
       </c>
       <c r="F1149" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1149" s="1">
         <v>45262</v>
@@ -26224,7 +26204,7 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B1150" t="s">
         <v>24</v>
@@ -26247,13 +26227,13 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E1151" t="s">
         <v>10</v>
       </c>
       <c r="F1151" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1151" s="1">
         <v>46460</v>
@@ -26261,7 +26241,7 @@
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1152" t="s">
         <v>24</v>
@@ -26284,7 +26264,7 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1153" t="s">
         <v>24</v>
@@ -26307,7 +26287,7 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1154" t="s">
         <v>24</v>
@@ -26330,7 +26310,7 @@
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1155" t="s">
         <v>24</v>
@@ -26353,7 +26333,7 @@
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1156" t="s">
         <v>24</v>
@@ -26376,7 +26356,7 @@
     </row>
     <row r="1157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B1157" t="s">
         <v>24</v>
@@ -26399,13 +26379,13 @@
     </row>
     <row r="1158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E1158" t="s">
         <v>10</v>
       </c>
       <c r="F1158" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1159" spans="1:7" x14ac:dyDescent="0.3">
@@ -26413,7 +26393,7 @@
         <v>10</v>
       </c>
       <c r="F1159" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1159" s="1">
         <v>46350</v>
@@ -26424,7 +26404,7 @@
         <v>16</v>
       </c>
       <c r="F1160" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1160" s="1">
         <v>46350</v>
@@ -26435,7 +26415,7 @@
         <v>26</v>
       </c>
       <c r="F1161" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1161" s="1">
         <v>46350</v>
@@ -26443,7 +26423,7 @@
     </row>
     <row r="1162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1162" t="s">
         <v>24</v>
@@ -26466,7 +26446,7 @@
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B1163" t="s">
         <v>24</v>
@@ -26489,7 +26469,7 @@
     </row>
     <row r="1164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B1164" t="s">
         <v>24</v>
@@ -26512,7 +26492,7 @@
     </row>
     <row r="1165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1165" t="s">
         <v>24</v>
@@ -26535,7 +26515,7 @@
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B1166" t="s">
         <v>24</v>
@@ -26558,7 +26538,7 @@
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B1167" t="s">
         <v>24</v>
@@ -26581,7 +26561,7 @@
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B1168" t="s">
         <v>24</v>
@@ -26593,7 +26573,7 @@
         <v>9</v>
       </c>
       <c r="E1168" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1168" t="s">
         <v>11</v>
@@ -26604,13 +26584,13 @@
     </row>
     <row r="1169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E1169" t="s">
         <v>10</v>
       </c>
       <c r="F1169" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1169" s="1">
         <v>46417</v>
@@ -26618,7 +26598,7 @@
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B1170" t="s">
         <v>24</v>
@@ -26644,7 +26624,7 @@
         <v>10</v>
       </c>
       <c r="F1171" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1171" s="1">
         <v>46360</v>
@@ -26655,7 +26635,7 @@
         <v>16</v>
       </c>
       <c r="F1172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1172" s="1">
         <v>46367</v>
@@ -26666,7 +26646,7 @@
         <v>26</v>
       </c>
       <c r="F1173" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1173" s="1">
         <v>46367</v>
@@ -26674,13 +26654,13 @@
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E1174" t="s">
         <v>10</v>
       </c>
       <c r="F1174" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1174" s="1">
         <v>46404</v>
@@ -26688,13 +26668,13 @@
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E1175" t="s">
         <v>10</v>
       </c>
       <c r="F1175" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1175" s="1">
         <v>46434</v>
@@ -26702,13 +26682,13 @@
     </row>
     <row r="1176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E1176" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1176" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1176" s="1">
         <v>46516</v>
@@ -26716,13 +26696,13 @@
     </row>
     <row r="1177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E1177" t="s">
         <v>10</v>
       </c>
       <c r="F1177" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1177" s="1">
         <v>46441</v>
@@ -26730,13 +26710,13 @@
     </row>
     <row r="1178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E1178" t="s">
         <v>10</v>
       </c>
       <c r="F1178" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1178" s="1">
         <v>46403</v>
@@ -26744,13 +26724,13 @@
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E1179" t="s">
         <v>26</v>
       </c>
       <c r="F1179" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1179" s="1">
         <v>45337</v>
@@ -26758,7 +26738,7 @@
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B1180" t="s">
         <v>24</v>
@@ -26784,7 +26764,7 @@
         <v>87</v>
       </c>
       <c r="F1181" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1181" s="1">
         <v>46380</v>
@@ -26792,10 +26772,10 @@
     </row>
     <row r="1182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B1182" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C1182">
         <v>2465015109</v>
@@ -26815,7 +26795,7 @@
     </row>
     <row r="1183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B1183" t="s">
         <v>8</v>
@@ -26838,7 +26818,7 @@
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B1184" t="s">
         <v>8</v>
@@ -26861,13 +26841,13 @@
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E1185" t="s">
         <v>10</v>
       </c>
       <c r="F1185" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1185" s="1">
         <v>46404</v>
@@ -26875,13 +26855,13 @@
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E1186" t="s">
         <v>16</v>
       </c>
       <c r="F1186" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1186" s="1">
         <v>46404</v>
@@ -26892,7 +26872,7 @@
         <v>10</v>
       </c>
       <c r="F1187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1187" s="1">
         <v>46374</v>
@@ -26903,7 +26883,7 @@
         <v>16</v>
       </c>
       <c r="F1188" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1188" s="1">
         <v>46374</v>
@@ -26914,7 +26894,7 @@
         <v>26</v>
       </c>
       <c r="F1189" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1189" s="1">
         <v>46374</v>
@@ -26922,7 +26902,7 @@
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E1190" t="s">
         <v>83</v>
@@ -26931,12 +26911,12 @@
         <v>84</v>
       </c>
       <c r="G1190" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D1191" t="s">
         <v>14</v>
@@ -26953,7 +26933,7 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E1192" t="s">
         <v>83</v>
@@ -26967,13 +26947,13 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E1193" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1193" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1193" s="1">
         <v>46352</v>
@@ -26981,13 +26961,13 @@
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E1194" t="s">
         <v>10</v>
       </c>
       <c r="F1194" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1194" s="1">
         <v>45678</v>
@@ -26995,7 +26975,7 @@
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B1195" t="s">
         <v>24</v>
@@ -27007,7 +26987,7 @@
         <v>14</v>
       </c>
       <c r="E1195" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F1195" t="s">
         <v>11</v>
@@ -27015,7 +26995,7 @@
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B1196" t="s">
         <v>24</v>
@@ -27038,7 +27018,7 @@
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B1197" t="s">
         <v>24</v>
@@ -27061,7 +27041,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B1198" t="s">
         <v>24</v>
@@ -27084,7 +27064,7 @@
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B1199" t="s">
         <v>24</v>
@@ -27107,7 +27087,7 @@
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1200" t="s">
         <v>44</v>
@@ -27130,7 +27110,7 @@
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1201" t="s">
         <v>44</v>
@@ -27153,7 +27133,7 @@
     </row>
     <row r="1202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1202" t="s">
         <v>8</v>
@@ -27176,7 +27156,7 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B1203" t="s">
         <v>8</v>
@@ -27199,7 +27179,7 @@
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1204" t="s">
         <v>8</v>
@@ -27222,7 +27202,7 @@
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1205" t="s">
         <v>8</v>
@@ -27245,7 +27225,7 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1206" t="s">
         <v>8</v>
@@ -27268,7 +27248,7 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1207" t="s">
         <v>8</v>
@@ -27291,7 +27271,7 @@
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B1208" t="s">
         <v>44</v>
@@ -27314,7 +27294,7 @@
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B1209" t="s">
         <v>44</v>
@@ -27337,13 +27317,13 @@
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E1210" t="s">
         <v>10</v>
       </c>
       <c r="F1210" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1210" s="1">
         <v>46432</v>
@@ -27351,13 +27331,13 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E1211" t="s">
         <v>16</v>
       </c>
       <c r="F1211" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1211" s="1">
         <v>46431</v>
@@ -27365,13 +27345,13 @@
     </row>
     <row r="1212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E1212" t="s">
         <v>26</v>
       </c>
       <c r="F1212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1212" s="1">
         <v>46431</v>
@@ -27379,13 +27359,13 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E1213" t="s">
         <v>10</v>
       </c>
       <c r="F1213" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1213" s="1">
         <v>46436</v>
@@ -27393,13 +27373,13 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E1214" t="s">
         <v>16</v>
       </c>
       <c r="F1214" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1214" s="1">
         <v>46436</v>
@@ -27407,13 +27387,13 @@
     </row>
     <row r="1215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E1215" t="s">
         <v>26</v>
       </c>
       <c r="F1215" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1215" s="1">
         <v>46436</v>
@@ -27421,13 +27401,13 @@
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E1216" t="s">
         <v>10</v>
       </c>
       <c r="F1216" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1216" s="1">
         <v>45694</v>
@@ -27435,7 +27415,7 @@
     </row>
     <row r="1217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1217" t="s">
         <v>24</v>
@@ -27458,7 +27438,7 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C1218">
         <v>7722384856</v>
@@ -27467,7 +27447,7 @@
         <v>10</v>
       </c>
       <c r="F1218" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1218" s="1">
         <v>46459</v>
@@ -27475,13 +27455,13 @@
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E1219" t="s">
         <v>10</v>
       </c>
       <c r="F1219" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1219" s="1">
         <v>46452</v>
@@ -27489,13 +27469,13 @@
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E1220" t="s">
         <v>26</v>
       </c>
       <c r="F1220" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1220" s="1">
         <v>46452</v>
@@ -27503,13 +27483,13 @@
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E1221" t="s">
         <v>10</v>
       </c>
       <c r="F1221" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1221" s="1">
         <v>46510</v>
@@ -27517,13 +27497,13 @@
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E1222" t="s">
         <v>52</v>
       </c>
       <c r="F1222" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1222" s="1">
         <v>46510</v>
@@ -27531,13 +27511,13 @@
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E1223" t="s">
         <v>10</v>
       </c>
       <c r="F1223" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1223" s="1">
         <v>46445</v>
@@ -27545,13 +27525,13 @@
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E1224" t="s">
         <v>10</v>
       </c>
       <c r="F1224" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1224" s="1">
         <v>46437</v>
@@ -27559,13 +27539,13 @@
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E1225" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F1225" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1225" s="1">
         <v>46440</v>
@@ -27573,13 +27553,13 @@
     </row>
     <row r="1226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E1226" t="s">
         <v>10</v>
       </c>
       <c r="F1226" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1226" s="1">
         <v>45935</v>
@@ -27587,13 +27567,13 @@
     </row>
     <row r="1227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E1227" t="s">
         <v>16</v>
       </c>
       <c r="F1227" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1227" s="1">
         <v>45928</v>
@@ -27601,13 +27581,13 @@
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E1228" t="s">
         <v>26</v>
       </c>
       <c r="F1228" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1228" s="1">
         <v>45928</v>
@@ -27615,13 +27595,13 @@
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E1229" t="s">
         <v>10</v>
       </c>
       <c r="F1229" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1229" s="1">
         <v>46241</v>
@@ -27629,13 +27609,13 @@
     </row>
     <row r="1230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E1230" t="s">
         <v>16</v>
       </c>
       <c r="F1230" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1230" s="1">
         <v>46241</v>
@@ -27643,13 +27623,13 @@
     </row>
     <row r="1231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E1231" t="s">
         <v>26</v>
       </c>
       <c r="F1231" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1231" s="1">
         <v>46241</v>
@@ -27660,7 +27640,7 @@
         <v>10</v>
       </c>
       <c r="F1232" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1232" s="1">
         <v>46374</v>
@@ -27671,7 +27651,7 @@
         <v>16</v>
       </c>
       <c r="F1233" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1233" s="1">
         <v>46374</v>
@@ -27682,7 +27662,7 @@
         <v>26</v>
       </c>
       <c r="F1234" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1234" s="1">
         <v>46374</v>
@@ -27690,13 +27670,13 @@
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E1235" t="s">
         <v>65</v>
       </c>
       <c r="F1235" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1235" s="1">
         <v>45960</v>
@@ -27704,13 +27684,13 @@
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E1236" t="s">
         <v>10</v>
       </c>
       <c r="F1236" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1236" s="1">
         <v>46471</v>
@@ -27718,13 +27698,13 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E1237" t="s">
         <v>10</v>
       </c>
       <c r="F1237" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1237" s="1">
         <v>46536</v>
@@ -27732,13 +27712,13 @@
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E1238" t="s">
         <v>16</v>
       </c>
       <c r="F1238" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1238" s="1">
         <v>46536</v>
@@ -27746,13 +27726,13 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E1239" t="s">
         <v>26</v>
       </c>
       <c r="F1239" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1239" s="1">
         <v>45443</v>
@@ -27760,7 +27740,7 @@
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1240" t="s">
         <v>44</v>
@@ -27783,7 +27763,7 @@
     </row>
     <row r="1241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1241" t="s">
         <v>44</v>
@@ -27806,7 +27786,7 @@
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1242" t="s">
         <v>24</v>
@@ -27829,7 +27809,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B1243" t="s">
         <v>24</v>
@@ -27855,7 +27835,7 @@
         <v>10</v>
       </c>
       <c r="F1244" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1244" s="1">
         <v>46382</v>
@@ -27866,7 +27846,7 @@
         <v>16</v>
       </c>
       <c r="F1245" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1245" s="1">
         <v>46382</v>
@@ -27877,7 +27857,7 @@
         <v>26</v>
       </c>
       <c r="F1246" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1246" s="1">
         <v>46382</v>
@@ -27885,7 +27865,7 @@
     </row>
     <row r="1247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D1247" t="s">
         <v>14</v>
@@ -27902,13 +27882,13 @@
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E1248" t="s">
         <v>10</v>
       </c>
       <c r="F1248" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1248" s="1">
         <v>46529</v>
@@ -27916,13 +27896,13 @@
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E1249" t="s">
         <v>16</v>
       </c>
       <c r="F1249" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1249" s="1">
         <v>46529</v>
@@ -27930,13 +27910,13 @@
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E1250" t="s">
         <v>26</v>
       </c>
       <c r="F1250" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1250" s="1">
         <v>46529</v>
@@ -27944,13 +27924,13 @@
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E1251" t="s">
         <v>10</v>
       </c>
       <c r="F1251" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1251" s="1">
         <v>46523</v>
@@ -27958,7 +27938,7 @@
     </row>
     <row r="1252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B1252" t="s">
         <v>24</v>
@@ -27967,7 +27947,7 @@
         <v>52</v>
       </c>
       <c r="F1252" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1252" s="1">
         <v>46501</v>
@@ -27975,7 +27955,7 @@
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B1253" t="s">
         <v>24</v>
@@ -27998,7 +27978,7 @@
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B1254" t="s">
         <v>24</v>
@@ -28021,7 +28001,7 @@
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B1255" t="s">
         <v>24</v>
@@ -28047,18 +28027,18 @@
         <v>87</v>
       </c>
       <c r="F1256" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E1257" t="s">
         <v>10</v>
       </c>
       <c r="F1257" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1257" s="1">
         <v>46643</v>
@@ -28066,24 +28046,24 @@
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E1258" t="s">
         <v>10</v>
       </c>
       <c r="F1258" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E1259" t="s">
         <v>10</v>
       </c>
       <c r="F1259" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1259" s="1">
         <v>46473</v>
@@ -28091,16 +28071,16 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1260" t="s">
         <v>639</v>
       </c>
-      <c r="B1260" t="s">
-        <v>640</v>
-      </c>
       <c r="E1260" t="s">
         <v>10</v>
       </c>
       <c r="F1260" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1260" s="1">
         <v>46548</v>
@@ -28108,7 +28088,7 @@
     </row>
     <row r="1261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1261" t="s">
         <v>8</v>
@@ -28131,7 +28111,7 @@
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1262" t="s">
         <v>8</v>
@@ -28157,7 +28137,7 @@
         <v>87</v>
       </c>
       <c r="F1263" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1263" s="1">
         <v>46510</v>
@@ -28165,7 +28145,7 @@
     </row>
     <row r="1264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1264" t="s">
         <v>24</v>
@@ -28188,7 +28168,7 @@
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B1265" t="s">
         <v>78</v>
@@ -28211,13 +28191,13 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E1266" t="s">
         <v>10</v>
       </c>
       <c r="F1266" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1266" s="1">
         <v>45477</v>
@@ -28225,13 +28205,13 @@
     </row>
     <row r="1267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E1267" t="s">
         <v>10</v>
       </c>
       <c r="F1267" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1267" s="1">
         <v>45467</v>
@@ -28239,13 +28219,13 @@
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E1268" t="s">
         <v>16</v>
       </c>
       <c r="F1268" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1268" s="1">
         <v>45467</v>
@@ -28253,13 +28233,13 @@
     </row>
     <row r="1269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E1269" t="s">
         <v>26</v>
       </c>
       <c r="F1269" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1269" s="1">
         <v>45475</v>
@@ -28267,7 +28247,7 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B1270" t="s">
         <v>24</v>
@@ -28290,13 +28270,13 @@
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E1271" t="s">
         <v>10</v>
       </c>
       <c r="F1271" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1271" s="1">
         <v>46545</v>
@@ -28304,13 +28284,13 @@
     </row>
     <row r="1272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E1272" t="s">
         <v>10</v>
       </c>
       <c r="F1272" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1272" s="1">
         <v>46546</v>
@@ -28318,13 +28298,13 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E1273" t="s">
         <v>16</v>
       </c>
       <c r="F1273" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1273" s="1">
         <v>46598</v>
@@ -28332,13 +28312,13 @@
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E1274" t="s">
         <v>26</v>
       </c>
       <c r="F1274" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1274" s="1">
         <v>46598</v>
@@ -28346,13 +28326,13 @@
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E1275" t="s">
         <v>10</v>
       </c>
       <c r="F1275" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1275" s="1">
         <v>46613</v>
@@ -28360,13 +28340,13 @@
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E1276" t="s">
         <v>16</v>
       </c>
       <c r="F1276" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1276" s="1">
         <v>46613</v>
@@ -28374,13 +28354,13 @@
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E1277" t="s">
         <v>26</v>
       </c>
       <c r="F1277" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G1277" s="1">
         <v>46613</v>
@@ -28388,13 +28368,13 @@
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1278" t="s">
         <v>650</v>
-      </c>
-      <c r="E1278" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1278" t="s">
-        <v>651</v>
       </c>
       <c r="G1278" s="1">
         <v>46516</v>
@@ -28402,13 +28382,13 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E1279" t="s">
         <v>16</v>
       </c>
       <c r="F1279" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G1279" s="1">
         <v>46651</v>
@@ -28416,13 +28396,13 @@
     </row>
     <row r="1280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1280" t="s">
         <v>650</v>
-      </c>
-      <c r="E1280" t="s">
-        <v>652</v>
-      </c>
-      <c r="F1280" t="s">
-        <v>651</v>
       </c>
       <c r="G1280" s="1">
         <v>46654</v>
@@ -28430,13 +28410,13 @@
     </row>
     <row r="1281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E1281" t="s">
         <v>10</v>
       </c>
       <c r="F1281" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1281" s="1">
         <v>46558</v>
@@ -28444,18 +28424,18 @@
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E1282" t="s">
         <v>10</v>
       </c>
       <c r="F1282" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1283" t="s">
         <v>24</v>
@@ -28478,7 +28458,7 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1284" t="s">
         <v>24</v>
@@ -28501,7 +28481,7 @@
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1285" t="s">
         <v>24</v>
@@ -28524,7 +28504,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B1286" t="s">
         <v>24</v>
@@ -28547,7 +28527,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B1287" t="s">
         <v>24</v>
@@ -28570,7 +28550,7 @@
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B1288" t="s">
         <v>24</v>
@@ -28593,7 +28573,7 @@
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1289" t="s">
         <v>24</v>
@@ -28616,7 +28596,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B1290" t="s">
         <v>8</v>
@@ -28639,7 +28619,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B1291" t="s">
         <v>24</v>
@@ -28662,7 +28642,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B1292" t="s">
         <v>24</v>
@@ -28685,7 +28665,7 @@
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1293" t="s">
         <v>24</v>
@@ -28708,7 +28688,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B1294" t="s">
         <v>78</v>
@@ -28731,7 +28711,7 @@
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B1295" t="s">
         <v>24</v>
@@ -28754,7 +28734,7 @@
     </row>
     <row r="1296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B1296" t="s">
         <v>24</v>
@@ -28777,7 +28757,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B1297" t="s">
         <v>24</v>
@@ -28800,7 +28780,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B1298" t="s">
         <v>8</v>
@@ -28823,7 +28803,7 @@
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B1299" t="s">
         <v>24</v>
@@ -28846,7 +28826,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B1300" t="s">
         <v>24</v>
@@ -28869,7 +28849,7 @@
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B1301" t="s">
         <v>24</v>
@@ -28892,7 +28872,7 @@
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B1302" t="s">
         <v>24</v>
@@ -28912,7 +28892,7 @@
     </row>
     <row r="1303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B1303" t="s">
         <v>24</v>
@@ -28935,7 +28915,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B1304" t="s">
         <v>24</v>
@@ -28955,7 +28935,7 @@
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B1305" t="s">
         <v>24</v>
@@ -28975,7 +28955,7 @@
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B1306" t="s">
         <v>24</v>
@@ -28995,7 +28975,7 @@
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B1307" t="s">
         <v>8</v>
@@ -29018,7 +28998,7 @@
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B1308" t="s">
         <v>24</v>
@@ -29041,7 +29021,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B1309" t="s">
         <v>24</v>
@@ -29064,7 +29044,7 @@
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B1310" t="s">
         <v>8</v>
@@ -29087,7 +29067,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B1311" t="s">
         <v>8</v>
@@ -29110,7 +29090,7 @@
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1312" t="s">
         <v>24</v>
@@ -29133,7 +29113,7 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1313" t="s">
         <v>24</v>
@@ -29156,18 +29136,18 @@
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E1314" t="s">
         <v>10</v>
       </c>
       <c r="F1314" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B1315" t="s">
         <v>24</v>
@@ -29190,7 +29170,7 @@
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1316" t="s">
         <v>24</v>
@@ -29213,13 +29193,13 @@
     </row>
     <row r="1317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E1317" t="s">
         <v>10</v>
       </c>
       <c r="F1317" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1317" s="1">
         <v>46604</v>
@@ -29227,13 +29207,13 @@
     </row>
     <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E1318" t="s">
         <v>87</v>
       </c>
       <c r="F1318" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1318" s="1">
         <v>46644</v>
@@ -29241,13 +29221,13 @@
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E1319" t="s">
         <v>10</v>
       </c>
       <c r="F1319" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.3">
@@ -29255,7 +29235,7 @@
         <v>10</v>
       </c>
       <c r="F1320" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.3">
@@ -29263,23 +29243,23 @@
         <v>16</v>
       </c>
       <c r="F1321" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E1322" t="s">
         <v>52</v>
       </c>
       <c r="F1322" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B1323" t="s">
         <v>24</v>
@@ -29302,7 +29282,7 @@
     </row>
     <row r="1324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B1324" t="s">
         <v>24</v>
@@ -29325,7 +29305,7 @@
     </row>
     <row r="1325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B1325" t="s">
         <v>24</v>
@@ -29348,7 +29328,7 @@
     </row>
     <row r="1326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B1326" t="s">
         <v>24</v>
@@ -29371,7 +29351,7 @@
     </row>
     <row r="1327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B1327" t="s">
         <v>24</v>
@@ -29394,7 +29374,7 @@
     </row>
     <row r="1328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B1328" t="s">
         <v>24</v>
@@ -29417,7 +29397,7 @@
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1329" t="s">
         <v>24</v>
@@ -29440,7 +29420,7 @@
     </row>
     <row r="1330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1330" t="s">
         <v>24</v>
@@ -29449,10 +29429,10 @@
         <v>3604011804</v>
       </c>
       <c r="D1330" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1330" t="s">
         <v>695</v>
-      </c>
-      <c r="E1330" t="s">
-        <v>696</v>
       </c>
       <c r="F1330" t="s">
         <v>11</v>
@@ -29466,7 +29446,7 @@
         <v>10</v>
       </c>
       <c r="F1331" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1331" s="1">
         <v>46622</v>
@@ -29477,7 +29457,7 @@
         <v>10</v>
       </c>
       <c r="F1332" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G1332" s="1">
         <v>46654</v>
@@ -29485,7 +29465,7 @@
     </row>
     <row r="1333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1333" t="s">
         <v>24</v>
@@ -29508,7 +29488,7 @@
     </row>
     <row r="1334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B1334" t="s">
         <v>24</v>
@@ -29528,7 +29508,7 @@
     </row>
     <row r="1335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B1335" t="s">
         <v>24</v>
@@ -29548,7 +29528,7 @@
         <v>10</v>
       </c>
       <c r="F1336" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G1336" s="1">
         <v>45574</v>
@@ -29556,7 +29536,7 @@
     </row>
     <row r="1337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B1337" t="s">
         <v>24</v>
@@ -29579,7 +29559,7 @@
     </row>
     <row r="1338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B1338" t="s">
         <v>24</v>
@@ -29602,7 +29582,7 @@
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B1339" t="s">
         <v>8</v>
@@ -29625,7 +29605,7 @@
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B1340" t="s">
         <v>8</v>
@@ -29648,7 +29628,7 @@
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B1341" t="s">
         <v>8</v>
@@ -29671,7 +29651,7 @@
     </row>
     <row r="1342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B1342" t="s">
         <v>8</v>
@@ -29694,7 +29674,7 @@
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B1343" t="s">
         <v>24</v>
@@ -29714,7 +29694,7 @@
     </row>
     <row r="1344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B1344" t="s">
         <v>24</v>
@@ -29731,10 +29711,10 @@
     </row>
     <row r="1345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1345" t="s">
         <v>706</v>
-      </c>
-      <c r="B1345" t="s">
-        <v>707</v>
       </c>
       <c r="D1345" t="s">
         <v>14</v>
@@ -29748,7 +29728,7 @@
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B1346" t="s">
         <v>28</v>
@@ -29771,7 +29751,7 @@
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B1347" t="s">
         <v>28</v>
@@ -29794,7 +29774,7 @@
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B1348" t="s">
         <v>24</v>
@@ -29817,7 +29797,7 @@
     </row>
     <row r="1349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1349" t="s">
         <v>8</v>
@@ -29837,19 +29817,19 @@
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1350" t="s">
         <v>710</v>
       </c>
-      <c r="B1350" t="s">
+      <c r="D1350" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>695</v>
+      </c>
+      <c r="F1350" t="s">
         <v>711</v>
-      </c>
-      <c r="D1350" t="s">
-        <v>695</v>
-      </c>
-      <c r="E1350" t="s">
-        <v>696</v>
-      </c>
-      <c r="F1350" t="s">
-        <v>712</v>
       </c>
       <c r="G1350" s="1">
         <v>46377</v>
@@ -29857,7 +29837,7 @@
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B1351" t="s">
         <v>24</v>
@@ -29866,10 +29846,10 @@
         <v>3257017280</v>
       </c>
       <c r="D1351" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1351" t="s">
         <v>695</v>
-      </c>
-      <c r="E1351" t="s">
-        <v>696</v>
       </c>
       <c r="F1351" t="s">
         <v>11</v>
@@ -29880,12 +29860,12 @@
         <v>10</v>
       </c>
       <c r="F1352" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B1353" t="s">
         <v>24</v>
@@ -29894,10 +29874,10 @@
         <v>5030090040</v>
       </c>
       <c r="D1353" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1353" t="s">
         <v>695</v>
-      </c>
-      <c r="E1353" t="s">
-        <v>696</v>
       </c>
       <c r="F1353" t="s">
         <v>11</v>
@@ -29908,7 +29888,7 @@
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B1354" t="s">
         <v>24</v>
@@ -29917,10 +29897,10 @@
         <v>5834052005</v>
       </c>
       <c r="D1354" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1354" t="s">
         <v>695</v>
-      </c>
-      <c r="E1354" t="s">
-        <v>696</v>
       </c>
       <c r="F1354" t="s">
         <v>11</v>
@@ -29928,7 +29908,7 @@
     </row>
     <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1355" t="s">
         <v>24</v>
@@ -29937,10 +29917,10 @@
         <v>7733660353</v>
       </c>
       <c r="D1355" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1355" t="s">
         <v>695</v>
-      </c>
-      <c r="E1355" t="s">
-        <v>696</v>
       </c>
       <c r="F1355" t="s">
         <v>11</v>
@@ -29951,7 +29931,7 @@
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B1356" t="s">
         <v>24</v>
@@ -29960,10 +29940,10 @@
         <v>1644034949</v>
       </c>
       <c r="D1356" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1356" t="s">
         <v>695</v>
-      </c>
-      <c r="E1356" t="s">
-        <v>696</v>
       </c>
       <c r="F1356" t="s">
         <v>11</v>
@@ -29974,7 +29954,7 @@
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B1357" t="s">
         <v>24</v>
@@ -29983,10 +29963,10 @@
         <v>8610024374</v>
       </c>
       <c r="D1357" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E1357" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1357" t="s">
         <v>11</v>
@@ -29994,7 +29974,7 @@
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B1358" t="s">
         <v>24</v>
@@ -30002,13 +29982,13 @@
     </row>
     <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1359" t="s">
         <v>721</v>
-      </c>
-      <c r="B1359" t="s">
-        <v>695</v>
-      </c>
-      <c r="C1359" t="s">
-        <v>722</v>
       </c>
       <c r="D1359" t="s">
         <v>11</v>
@@ -30016,7 +29996,7 @@
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B1360" t="s">
         <v>8</v>
@@ -30025,10 +30005,10 @@
         <v>6317126596</v>
       </c>
       <c r="D1360" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E1360" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1360" t="s">
         <v>11</v>
@@ -30036,7 +30016,7 @@
     </row>
     <row r="1361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B1361" t="s">
         <v>24</v>
@@ -30045,10 +30025,10 @@
         <v>7017462729</v>
       </c>
       <c r="D1361" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1361" t="s">
         <v>695</v>
-      </c>
-      <c r="E1361" t="s">
-        <v>696</v>
       </c>
       <c r="F1361" t="s">
         <v>11</v>
@@ -30059,7 +30039,7 @@
     </row>
     <row r="1362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B1362" t="s">
         <v>24</v>
@@ -30068,10 +30048,10 @@
         <v>7811438750</v>
       </c>
       <c r="D1362" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1362" t="s">
         <v>695</v>
-      </c>
-      <c r="E1362" t="s">
-        <v>696</v>
       </c>
       <c r="F1362" t="s">
         <v>11</v>
@@ -30082,7 +30062,7 @@
     </row>
     <row r="1363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B1363" t="s">
         <v>24</v>
@@ -30091,10 +30071,10 @@
         <v>5505217893</v>
       </c>
       <c r="D1363" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1363" t="s">
         <v>695</v>
-      </c>
-      <c r="E1363" t="s">
-        <v>696</v>
       </c>
       <c r="F1363" t="s">
         <v>11</v>
@@ -30105,7 +30085,7 @@
     </row>
     <row r="1364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B1364" t="s">
         <v>24</v>
@@ -30113,13 +30093,13 @@
     </row>
     <row r="1365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B1365" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C1365" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1365" t="s">
         <v>11</v>
@@ -30127,16 +30107,16 @@
     </row>
     <row r="1366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1366" t="s">
         <v>729</v>
       </c>
-      <c r="B1366" t="s">
-        <v>730</v>
-      </c>
       <c r="D1366" t="s">
+        <v>694</v>
+      </c>
+      <c r="E1366" t="s">
         <v>695</v>
-      </c>
-      <c r="E1366" t="s">
-        <v>696</v>
       </c>
       <c r="F1366" t="s">
         <v>132</v>
@@ -30144,7 +30124,7 @@
     </row>
     <row r="1367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B1367" t="s">
         <v>8</v>

--- a/URS_Certifications 30.11.24.xlsx
+++ b/URS_Certifications 30.11.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39CA9A-ECAB-41AB-89E9-3667DD90831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7D97EF-3855-4179-9AAA-EEE766F94D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URS_Certifications 30.11.24" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5861" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5860" uniqueCount="731">
   <si>
     <t>Название компании</t>
   </si>
@@ -3075,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="I629" sqref="I629"/>
+    <sheetView tabSelected="1" topLeftCell="A1181" workbookViewId="0">
+      <selection activeCell="I1188" sqref="I1188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26989,9 +26989,6 @@
       <c r="E1195" t="s">
         <v>604</v>
       </c>
-      <c r="F1195" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
